--- a/data/output/holdings_FINAL.xlsx
+++ b/data/output/holdings_FINAL.xlsx
@@ -139,103 +139,103 @@
     <t>bro</t>
   </si>
   <si>
-    <t>1fcbce7f-c961-4105-b84c-0c8f3daa06fc</t>
-  </si>
-  <si>
-    <t>4d1ef6d9-c9a4-4826-bccd-a79e1e4dc9c1</t>
-  </si>
-  <si>
-    <t>fab0cfed-2da7-4487-91d7-4d0a84be61d1</t>
-  </si>
-  <si>
-    <t>01140143-8f52-4e7d-b126-81480a8346ad</t>
-  </si>
-  <si>
-    <t>1a2b33a7-939f-40c5-ac09-8c5dc9901341</t>
-  </si>
-  <si>
-    <t>2bdccb90-6000-4f4b-8f09-d6d8743a3694</t>
-  </si>
-  <si>
-    <t>ddba73bf-b214-448d-99be-785b5f232919</t>
-  </si>
-  <si>
-    <t>4a49dc99-c7ff-456f-b176-95c8c4bc2ec2</t>
-  </si>
-  <si>
-    <t>d64d03f4-c447-4eee-94a2-2341a3fb3a48</t>
-  </si>
-  <si>
-    <t>a549397d-f6ed-4b3d-813a-178d51186db6</t>
-  </si>
-  <si>
-    <t>9585ecba-132a-4be8-903c-b9735f280e3b</t>
-  </si>
-  <si>
-    <t>268311a6-e78f-4085-a9b2-5441005e95a7</t>
-  </si>
-  <si>
-    <t>a63d7363-917e-4455-99d8-49e41886a6a0</t>
-  </si>
-  <si>
-    <t>f7f3c7ac-a2b6-4421-ae74-56a996763ace</t>
-  </si>
-  <si>
-    <t>e4974efc-5227-4157-9d88-deb0e544a1d2</t>
-  </si>
-  <si>
-    <t>5103c8b1-dd63-4b01-b241-6a8960885b82</t>
-  </si>
-  <si>
-    <t>c8f6a4ca-e88e-43fb-9674-697c7f2e9289</t>
-  </si>
-  <si>
-    <t>5ca2adaf-f4d3-4a87-b78e-21e1651b436b</t>
-  </si>
-  <si>
-    <t>b392cbea-1ab2-4734-b18e-8af8d22fe486</t>
-  </si>
-  <si>
-    <t>07162e95-bccc-44b4-8dc8-720a3d7a52fd</t>
-  </si>
-  <si>
-    <t>5dca2aa4-bebd-422a-926a-442561803d67</t>
-  </si>
-  <si>
-    <t>64571595-409f-4e3f-924f-84414ea435b2</t>
-  </si>
-  <si>
-    <t>9dee27d1-9cca-4459-9232-f85dfeeba15b</t>
-  </si>
-  <si>
-    <t>6d82a07a-642b-4070-a235-a5d55f07dd66</t>
-  </si>
-  <si>
-    <t>451e993b-a1c0-465f-8292-1787f60aa744</t>
-  </si>
-  <si>
-    <t>fda63fa0-d5ac-42c7-ad6f-1d7518cb28fd</t>
-  </si>
-  <si>
-    <t>59f67875-5dff-4ace-8cc9-680b6f2ec0f7</t>
-  </si>
-  <si>
-    <t>52aa5e4b-c5ed-4863-91d7-e180d1f26159</t>
-  </si>
-  <si>
-    <t>592aa669-aa1f-4c5d-b113-57524fa35785</t>
-  </si>
-  <si>
-    <t>90343f3d-f9cd-49aa-b70a-8399f37e8edf</t>
-  </si>
-  <si>
-    <t>cfa09f12-8cdb-4a40-a087-4e7cc9860093</t>
-  </si>
-  <si>
-    <t>c05982be-2d69-4027-9659-dc5331659fc3</t>
-  </si>
-  <si>
-    <t>61a49c2c-d02d-4b5e-969c-6778d2a952d5</t>
+    <t>d3e9bd5a-261d-464d-92ca-c194e495d131</t>
+  </si>
+  <si>
+    <t>0032db56-9f97-4248-96a6-cfead516f79f</t>
+  </si>
+  <si>
+    <t>0cd1ca72-7385-4249-8175-547b09dd0135</t>
+  </si>
+  <si>
+    <t>ee087156-8de6-4160-9df6-3096bdc842ef</t>
+  </si>
+  <si>
+    <t>5f7e5969-b43c-49b3-92f8-8063f058165a</t>
+  </si>
+  <si>
+    <t>fcc5b9a7-9aae-4a45-9bc8-bc54a68d4c8d</t>
+  </si>
+  <si>
+    <t>898e7ff2-8305-40cb-9bf5-c96e0840f7d3</t>
+  </si>
+  <si>
+    <t>41d16cea-b077-4d67-930b-e21b4291b20c</t>
+  </si>
+  <si>
+    <t>661f33dd-81e0-4713-98bd-814c0ad4580f</t>
+  </si>
+  <si>
+    <t>7d772268-2a54-47af-8016-b4d6f0a75346</t>
+  </si>
+  <si>
+    <t>adc45ce5-9e4f-4d45-b3d5-3c66f2dfeecb</t>
+  </si>
+  <si>
+    <t>2ef05f46-7a9c-42b9-9bdc-7da30a5b992a</t>
+  </si>
+  <si>
+    <t>2fd06638-84dc-4732-9046-036ee35e0afd</t>
+  </si>
+  <si>
+    <t>8b131a4d-83a7-4a60-9425-63d814d78610</t>
+  </si>
+  <si>
+    <t>df0f7767-6a8c-43ff-9537-9fd7ef98a455</t>
+  </si>
+  <si>
+    <t>8388e381-d279-4d62-8cd2-8906f827bf6a</t>
+  </si>
+  <si>
+    <t>0a32aea3-2a65-4d23-b807-fac1e8942e97</t>
+  </si>
+  <si>
+    <t>2027218e-16c6-4852-9901-17c663bc2863</t>
+  </si>
+  <si>
+    <t>03359e49-6b41-4464-b48f-3c790b2e08e5</t>
+  </si>
+  <si>
+    <t>ab77fa73-f0c8-42c6-9546-4d762fbee08a</t>
+  </si>
+  <si>
+    <t>de31937b-a10e-49a8-b358-e63692e5a1fb</t>
+  </si>
+  <si>
+    <t>0de03b5d-7236-46d7-9347-601ed6234de6</t>
+  </si>
+  <si>
+    <t>2beac9ca-9e0e-47fa-ad7e-91d27f0aceb6</t>
+  </si>
+  <si>
+    <t>674896c6-b45a-40dd-8eaf-3e8d2ff73c50</t>
+  </si>
+  <si>
+    <t>10a69bc6-fb83-4387-b065-8fbd30341833</t>
+  </si>
+  <si>
+    <t>b0c22795-be58-439b-9fdd-8ea8acba3b2c</t>
+  </si>
+  <si>
+    <t>f5844c1c-1b49-438e-aff6-94d064a50869</t>
+  </si>
+  <si>
+    <t>5332334c-1ab5-4151-9135-a6990f7d1868</t>
+  </si>
+  <si>
+    <t>3cb551bc-e338-46f0-98db-e731ad612977</t>
+  </si>
+  <si>
+    <t>45dfabc1-c43d-44bb-80f8-2d10b1538c62</t>
+  </si>
+  <si>
+    <t>4599160c-a84e-4410-a83e-86176efa888c</t>
+  </si>
+  <si>
+    <t>1cee58e7-36fb-4956-a2ec-709b0e4da11a</t>
+  </si>
+  <si>
+    <t>89c33ce0-44e8-41e6-b1cd-2afb6e9f4e27</t>
   </si>
   <si>
     <t>LAXMAN LIMBU SUBBA</t>
@@ -1216,37 +1216,37 @@
         <v>906.17</v>
       </c>
       <c r="AB2">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="AC2">
-        <v>2561580</v>
+        <v>2579556</v>
       </c>
       <c r="AD2">
-        <v>7684.74</v>
+        <v>7738.67</v>
       </c>
       <c r="AE2">
-        <v>384.24</v>
+        <v>386.93</v>
       </c>
       <c r="AF2">
         <v>25</v>
       </c>
       <c r="AG2">
-        <v>161401.09</v>
+        <v>143481.72</v>
       </c>
       <c r="AH2">
-        <v>12105.08</v>
+        <v>10761.13</v>
       </c>
       <c r="AI2">
-        <v>-173506.18</v>
+        <v>-154242.85</v>
       </c>
       <c r="AJ2">
-        <v>-6.39</v>
+        <v>-5.68</v>
       </c>
       <c r="AK2">
         <v>517639.77</v>
       </c>
       <c r="AL2" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM2" t="s">
         <v>206</v>
@@ -1338,37 +1338,37 @@
         <v>256.02</v>
       </c>
       <c r="AB3">
-        <v>226</v>
+        <v>224.5</v>
       </c>
       <c r="AC3">
-        <v>2630866</v>
+        <v>2613404.5</v>
       </c>
       <c r="AD3">
-        <v>7892.6</v>
+        <v>7840.21</v>
       </c>
       <c r="AE3">
-        <v>394.63</v>
+        <v>392.01</v>
       </c>
       <c r="AF3">
         <v>25</v>
       </c>
       <c r="AG3">
-        <v>357738.96</v>
+        <v>375145.46</v>
       </c>
       <c r="AH3">
-        <v>26830.42</v>
+        <v>28135.91</v>
       </c>
       <c r="AI3">
-        <v>-384569.38</v>
+        <v>-403281.37</v>
       </c>
       <c r="AJ3">
-        <v>-12.9</v>
+        <v>-13.53</v>
       </c>
       <c r="AK3">
         <v>517639.77</v>
       </c>
       <c r="AL3" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM3" t="s">
         <v>206</v>
@@ -1463,37 +1463,37 @@
         <v>377.92</v>
       </c>
       <c r="AB4">
-        <v>371.4</v>
+        <v>373</v>
       </c>
       <c r="AC4">
-        <v>1188480</v>
+        <v>1193600</v>
       </c>
       <c r="AD4">
-        <v>3565.44</v>
+        <v>3580.8</v>
       </c>
       <c r="AE4">
-        <v>178.27</v>
+        <v>179.04</v>
       </c>
       <c r="AF4">
         <v>25</v>
       </c>
       <c r="AG4">
-        <v>24642.63</v>
+        <v>19538.76</v>
       </c>
       <c r="AH4">
-        <v>1848.2</v>
+        <v>1465.41</v>
       </c>
       <c r="AI4">
-        <v>-26490.83</v>
+        <v>-21004.17</v>
       </c>
       <c r="AJ4">
-        <v>-2.19</v>
+        <v>-1.74</v>
       </c>
       <c r="AK4">
         <v>517639.77</v>
       </c>
       <c r="AL4" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM4" t="s">
         <v>206</v>
@@ -1588,37 +1588,37 @@
         <v>456.42</v>
       </c>
       <c r="AB5">
-        <v>456.2</v>
+        <v>455.6</v>
       </c>
       <c r="AC5">
-        <v>1102179.2</v>
+        <v>1100729.6</v>
       </c>
       <c r="AD5">
-        <v>3306.54</v>
+        <v>3302.19</v>
       </c>
       <c r="AE5">
-        <v>165.33</v>
+        <v>165.11</v>
       </c>
       <c r="AF5">
         <v>25</v>
       </c>
       <c r="AG5">
-        <v>4025.67</v>
+        <v>5470.7</v>
       </c>
       <c r="AH5">
-        <v>301.93</v>
+        <v>410.3</v>
       </c>
       <c r="AI5">
-        <v>-4327.6</v>
+        <v>-5881.01</v>
       </c>
       <c r="AJ5">
-        <v>-0.39</v>
+        <v>-0.53</v>
       </c>
       <c r="AK5">
         <v>517639.77</v>
       </c>
       <c r="AL5" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM5" t="s">
         <v>206</v>
@@ -1710,13 +1710,13 @@
         <v>274.33</v>
       </c>
       <c r="AB6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC6">
-        <v>1645</v>
+        <v>1652</v>
       </c>
       <c r="AD6">
-        <v>4.93</v>
+        <v>4.96</v>
       </c>
       <c r="AE6">
         <v>0.25</v>
@@ -1725,22 +1725,22 @@
         <v>25</v>
       </c>
       <c r="AG6">
-        <v>305.49</v>
+        <v>298.52</v>
       </c>
       <c r="AH6">
-        <v>22.91</v>
+        <v>22.39</v>
       </c>
       <c r="AI6">
-        <v>-328.41</v>
+        <v>-320.9</v>
       </c>
       <c r="AJ6">
-        <v>-17.1</v>
+        <v>-16.71</v>
       </c>
       <c r="AK6">
         <v>517639.77</v>
       </c>
       <c r="AL6" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM6" t="s">
         <v>206</v>
@@ -1835,37 +1835,37 @@
         <v>707.9299999999999</v>
       </c>
       <c r="AB7">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="AC7">
-        <v>2281050</v>
+        <v>2324340</v>
       </c>
       <c r="AD7">
-        <v>6843.15</v>
+        <v>6973.02</v>
       </c>
       <c r="AE7">
-        <v>342.16</v>
+        <v>348.65</v>
       </c>
       <c r="AF7">
         <v>25</v>
       </c>
       <c r="AG7">
-        <v>83555.99000000001</v>
+        <v>40402.36</v>
       </c>
       <c r="AH7">
-        <v>6266.7</v>
+        <v>3030.18</v>
       </c>
       <c r="AI7">
-        <v>-89822.69</v>
+        <v>-43432.53</v>
       </c>
       <c r="AJ7">
-        <v>-3.81</v>
+        <v>-1.84</v>
       </c>
       <c r="AK7">
         <v>517639.77</v>
       </c>
       <c r="AL7" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM7" t="s">
         <v>206</v>
@@ -1960,37 +1960,37 @@
         <v>573.8</v>
       </c>
       <c r="AB8">
-        <v>590</v>
+        <v>587.5</v>
       </c>
       <c r="AC8">
-        <v>3658000</v>
+        <v>3642500</v>
       </c>
       <c r="AD8">
-        <v>10974</v>
+        <v>10927.5</v>
       </c>
       <c r="AE8">
-        <v>548.7</v>
+        <v>546.38</v>
       </c>
       <c r="AF8">
         <v>25</v>
       </c>
       <c r="AG8">
-        <v>-88877.58</v>
+        <v>-73426.41</v>
       </c>
       <c r="AH8">
-        <v>-6665.82</v>
+        <v>-5506.98</v>
       </c>
       <c r="AI8">
-        <v>95543.39999999999</v>
+        <v>78933.39</v>
       </c>
       <c r="AJ8">
-        <v>2.69</v>
+        <v>2.22</v>
       </c>
       <c r="AK8">
         <v>517639.77</v>
       </c>
       <c r="AL8" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM8" t="s">
         <v>206</v>
@@ -2085,37 +2085,37 @@
         <v>274.27</v>
       </c>
       <c r="AB9">
-        <v>281</v>
+        <v>284.8</v>
       </c>
       <c r="AC9">
-        <v>5620</v>
+        <v>5696</v>
       </c>
       <c r="AD9">
-        <v>16.86</v>
+        <v>17.09</v>
       </c>
       <c r="AE9">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AF9">
         <v>25</v>
       </c>
       <c r="AG9">
-        <v>-91.90000000000001</v>
+        <v>-167.66</v>
       </c>
       <c r="AH9">
-        <v>-6.89</v>
+        <v>-12.57</v>
       </c>
       <c r="AI9">
-        <v>98.79000000000001</v>
+        <v>180.23</v>
       </c>
       <c r="AJ9">
-        <v>1.8</v>
+        <v>3.29</v>
       </c>
       <c r="AK9">
         <v>517639.77</v>
       </c>
       <c r="AL9" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM9" t="s">
         <v>206</v>
@@ -2210,37 +2210,37 @@
         <v>421.87</v>
       </c>
       <c r="AB10">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AC10">
-        <v>1415700</v>
+        <v>1428900</v>
       </c>
       <c r="AD10">
-        <v>4247.1</v>
+        <v>4286.7</v>
       </c>
       <c r="AE10">
-        <v>212.36</v>
+        <v>214.34</v>
       </c>
       <c r="AF10">
         <v>25</v>
       </c>
       <c r="AG10">
-        <v>-19052.7</v>
+        <v>-32211.12</v>
       </c>
       <c r="AH10">
-        <v>-1428.95</v>
+        <v>-2415.83</v>
       </c>
       <c r="AI10">
-        <v>20481.66</v>
+        <v>34626.96</v>
       </c>
       <c r="AJ10">
-        <v>1.47</v>
+        <v>2.49</v>
       </c>
       <c r="AK10">
         <v>517639.77</v>
       </c>
       <c r="AL10" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM10" t="s">
         <v>206</v>
@@ -2332,37 +2332,37 @@
         <v>274.14</v>
       </c>
       <c r="AB11">
-        <v>243.9</v>
+        <v>243</v>
       </c>
       <c r="AC11">
-        <v>1219500</v>
+        <v>1215000</v>
       </c>
       <c r="AD11">
-        <v>3658.5</v>
+        <v>3645</v>
       </c>
       <c r="AE11">
-        <v>182.92</v>
+        <v>182.25</v>
       </c>
       <c r="AF11">
         <v>25</v>
       </c>
       <c r="AG11">
-        <v>155045.92</v>
+        <v>159531.75</v>
       </c>
       <c r="AH11">
-        <v>11628.44</v>
+        <v>11964.88</v>
       </c>
       <c r="AI11">
-        <v>-166674.37</v>
+        <v>-171496.63</v>
       </c>
       <c r="AJ11">
-        <v>-12.16</v>
+        <v>-12.51</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM11" t="s">
         <v>206</v>
@@ -2454,13 +2454,13 @@
         <v>100</v>
       </c>
       <c r="AB12">
-        <v>280.2</v>
+        <v>282</v>
       </c>
       <c r="AC12">
-        <v>1120.8</v>
+        <v>1128</v>
       </c>
       <c r="AD12">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="AE12">
         <v>0.17</v>
@@ -2469,22 +2469,22 @@
         <v>25</v>
       </c>
       <c r="AG12">
-        <v>-692.27</v>
+        <v>-699.45</v>
       </c>
       <c r="AH12">
-        <v>-51.92</v>
+        <v>-52.46</v>
       </c>
       <c r="AI12">
-        <v>744.1900000000001</v>
+        <v>751.91</v>
       </c>
       <c r="AJ12">
-        <v>186.05</v>
+        <v>187.98</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM12" t="s">
         <v>206</v>
@@ -2576,37 +2576,37 @@
         <v>15249.92</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>11275</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>112750</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>338.25</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>16.91</v>
       </c>
       <c r="AF13">
         <v>25</v>
       </c>
       <c r="AG13">
-        <v>152524.23</v>
+        <v>40129.39</v>
       </c>
       <c r="AH13">
-        <v>11439.32</v>
+        <v>3009.7</v>
       </c>
       <c r="AI13">
-        <v>-163963.55</v>
+        <v>-43139.09</v>
       </c>
       <c r="AJ13">
-        <v>-107.52</v>
+        <v>-28.29</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM13" t="s">
         <v>206</v>
@@ -2698,37 +2698,37 @@
         <v>1586.41</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>731500</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>2194.5</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>109.72</v>
       </c>
       <c r="AF14">
         <v>25</v>
       </c>
       <c r="AG14">
-        <v>872547.97</v>
+        <v>143352.2</v>
       </c>
       <c r="AH14">
-        <v>65441.1</v>
+        <v>10751.41</v>
       </c>
       <c r="AI14">
-        <v>-937989.0699999999</v>
+        <v>-154103.61</v>
       </c>
       <c r="AJ14">
-        <v>-107.5</v>
+        <v>-17.66</v>
       </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM14" t="s">
         <v>206</v>
@@ -2823,37 +2823,37 @@
         <v>1340.46</v>
       </c>
       <c r="AB15">
-        <v>1128.9</v>
+        <v>1121</v>
       </c>
       <c r="AC15">
-        <v>24835.8</v>
+        <v>24662</v>
       </c>
       <c r="AD15">
-        <v>74.51000000000001</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="AE15">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="AF15">
         <v>25</v>
       </c>
       <c r="AG15">
-        <v>4757.65</v>
+        <v>4930.9</v>
       </c>
       <c r="AH15">
-        <v>356.82</v>
+        <v>369.82</v>
       </c>
       <c r="AI15">
-        <v>-5114.47</v>
+        <v>-5300.72</v>
       </c>
       <c r="AJ15">
-        <v>-17.34</v>
+        <v>-17.97</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM15" t="s">
         <v>206</v>
@@ -2948,13 +2948,13 @@
         <v>100</v>
       </c>
       <c r="AB16">
-        <v>371.4</v>
+        <v>373</v>
       </c>
       <c r="AC16">
-        <v>4456.8</v>
+        <v>4476</v>
       </c>
       <c r="AD16">
-        <v>13.37</v>
+        <v>13.43</v>
       </c>
       <c r="AE16">
         <v>0.67</v>
@@ -2963,22 +2963,22 @@
         <v>25</v>
       </c>
       <c r="AG16">
-        <v>-3217.76</v>
+        <v>-3236.9</v>
       </c>
       <c r="AH16">
-        <v>-241.33</v>
+        <v>-242.77</v>
       </c>
       <c r="AI16">
-        <v>3459.09</v>
+        <v>3479.67</v>
       </c>
       <c r="AJ16">
-        <v>288.26</v>
+        <v>289.97</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM16" t="s">
         <v>206</v>
@@ -3070,13 +3070,13 @@
         <v>206</v>
       </c>
       <c r="AB17">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="AC17">
-        <v>8030</v>
+        <v>7970</v>
       </c>
       <c r="AD17">
-        <v>24.09</v>
+        <v>23.91</v>
       </c>
       <c r="AE17">
         <v>1.2</v>
@@ -3085,22 +3085,22 @@
         <v>25</v>
       </c>
       <c r="AG17">
-        <v>-5919.71</v>
+        <v>-5859.89</v>
       </c>
       <c r="AH17">
-        <v>-443.98</v>
+        <v>-439.49</v>
       </c>
       <c r="AI17">
-        <v>6363.68</v>
+        <v>6299.39</v>
       </c>
       <c r="AJ17">
-        <v>308.92</v>
+        <v>305.8</v>
       </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM17" t="s">
         <v>206</v>
@@ -3192,37 +3192,37 @@
         <v>8.98</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AF18">
         <v>25</v>
       </c>
       <c r="AG18">
-        <v>44938.5</v>
+        <v>-916.6</v>
       </c>
       <c r="AH18">
-        <v>3370.39</v>
+        <v>-68.73999999999999</v>
       </c>
       <c r="AI18">
-        <v>-48308.89</v>
+        <v>985.34</v>
       </c>
       <c r="AJ18">
-        <v>-107.56</v>
+        <v>2.19</v>
       </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM18" t="s">
         <v>206</v>
@@ -3314,13 +3314,13 @@
         <v>260.75</v>
       </c>
       <c r="AB19">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AC19">
-        <v>4431</v>
+        <v>4389</v>
       </c>
       <c r="AD19">
-        <v>13.29</v>
+        <v>13.17</v>
       </c>
       <c r="AE19">
         <v>0.66</v>
@@ -3329,22 +3329,22 @@
         <v>25</v>
       </c>
       <c r="AG19">
-        <v>1083.67</v>
+        <v>1125.54</v>
       </c>
       <c r="AH19">
-        <v>81.28</v>
+        <v>84.42</v>
       </c>
       <c r="AI19">
-        <v>-1164.95</v>
+        <v>-1209.95</v>
       </c>
       <c r="AJ19">
-        <v>-21.27</v>
+        <v>-22.1</v>
       </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM19" t="s">
         <v>206</v>
@@ -3436,37 +3436,37 @@
         <v>506.48</v>
       </c>
       <c r="AB20">
-        <v>505</v>
+        <v>506.5</v>
       </c>
       <c r="AC20">
-        <v>1264015</v>
+        <v>1267769.5</v>
       </c>
       <c r="AD20">
-        <v>3792.04</v>
+        <v>3803.31</v>
       </c>
       <c r="AE20">
-        <v>189.6</v>
+        <v>190.17</v>
       </c>
       <c r="AF20">
         <v>25</v>
       </c>
       <c r="AG20">
-        <v>7713.34</v>
+        <v>3970.67</v>
       </c>
       <c r="AH20">
-        <v>578.5</v>
+        <v>297.8</v>
       </c>
       <c r="AI20">
-        <v>-8291.84</v>
+        <v>-4268.47</v>
       </c>
       <c r="AJ20">
-        <v>-0.65</v>
+        <v>-0.34</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM20" t="s">
         <v>206</v>
@@ -3558,37 +3558,37 @@
         <v>100</v>
       </c>
       <c r="AB21">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AC21">
-        <v>11120</v>
+        <v>11020</v>
       </c>
       <c r="AD21">
-        <v>33.36</v>
+        <v>33.06</v>
       </c>
       <c r="AE21">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AF21">
         <v>25</v>
       </c>
       <c r="AG21">
-        <v>-9059.969999999999</v>
+        <v>-8960.290000000001</v>
       </c>
       <c r="AH21">
-        <v>-679.5</v>
+        <v>-672.02</v>
       </c>
       <c r="AI21">
-        <v>9739.469999999999</v>
+        <v>9632.309999999999</v>
       </c>
       <c r="AJ21">
-        <v>486.97</v>
+        <v>481.62</v>
       </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM21" t="s">
         <v>206</v>
@@ -3680,37 +3680,37 @@
         <v>100</v>
       </c>
       <c r="AB22">
-        <v>271.2</v>
+        <v>277.5</v>
       </c>
       <c r="AC22">
-        <v>14644.8</v>
+        <v>14985</v>
       </c>
       <c r="AD22">
-        <v>43.93</v>
+        <v>44.96</v>
       </c>
       <c r="AE22">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AF22">
         <v>25</v>
       </c>
       <c r="AG22">
-        <v>-9173.67</v>
+        <v>-9512.799999999999</v>
       </c>
       <c r="AH22">
-        <v>-688.03</v>
+        <v>-713.46</v>
       </c>
       <c r="AI22">
-        <v>9861.690000000001</v>
+        <v>10226.26</v>
       </c>
       <c r="AJ22">
-        <v>182.62</v>
+        <v>189.38</v>
       </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM22" t="s">
         <v>206</v>
@@ -3802,37 +3802,37 @@
         <v>257.04</v>
       </c>
       <c r="AB23">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AC23">
-        <v>5983</v>
+        <v>5921</v>
       </c>
       <c r="AD23">
-        <v>17.95</v>
+        <v>17.76</v>
       </c>
       <c r="AE23">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AF23">
         <v>25</v>
       </c>
       <c r="AG23">
-        <v>2029.17</v>
+        <v>2090.98</v>
       </c>
       <c r="AH23">
-        <v>152.19</v>
+        <v>156.82</v>
       </c>
       <c r="AI23">
-        <v>-2181.36</v>
+        <v>-2247.8</v>
       </c>
       <c r="AJ23">
-        <v>-27.38</v>
+        <v>-28.21</v>
       </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM23" t="s">
         <v>206</v>
@@ -3924,37 +3924,37 @@
         <v>1391.83</v>
       </c>
       <c r="AB24">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="AC24">
-        <v>13806000</v>
+        <v>13646700</v>
       </c>
       <c r="AD24">
-        <v>41418</v>
+        <v>40940.1</v>
       </c>
       <c r="AE24">
-        <v>2070.9</v>
+        <v>2047</v>
       </c>
       <c r="AF24">
         <v>25</v>
       </c>
       <c r="AG24">
-        <v>1018770.8</v>
+        <v>1177569.01</v>
       </c>
       <c r="AH24">
-        <v>76407.81</v>
+        <v>88317.67999999999</v>
       </c>
       <c r="AI24">
-        <v>-1095178.61</v>
+        <v>-1265886.68</v>
       </c>
       <c r="AJ24">
-        <v>-7.41</v>
+        <v>-8.56</v>
       </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM24" t="s">
         <v>206</v>
@@ -4049,37 +4049,37 @@
         <v>100</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>6357</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>19.07</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AF25">
         <v>25</v>
       </c>
       <c r="AG25">
-        <v>1325</v>
+        <v>-5011.98</v>
       </c>
       <c r="AH25">
-        <v>99.38</v>
+        <v>-375.9</v>
       </c>
       <c r="AI25">
-        <v>-1424.38</v>
+        <v>5387.87</v>
       </c>
       <c r="AJ25">
-        <v>-109.57</v>
+        <v>414.45</v>
       </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM25" t="s">
         <v>206</v>
@@ -4171,13 +4171,13 @@
         <v>100</v>
       </c>
       <c r="AB26">
-        <v>266.7</v>
+        <v>265</v>
       </c>
       <c r="AC26">
-        <v>5334</v>
+        <v>5300</v>
       </c>
       <c r="AD26">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="AE26">
         <v>0.8</v>
@@ -4186,22 +4186,22 @@
         <v>25</v>
       </c>
       <c r="AG26">
-        <v>-3292.2</v>
+        <v>-3258.3</v>
       </c>
       <c r="AH26">
-        <v>-246.91</v>
+        <v>-244.37</v>
       </c>
       <c r="AI26">
-        <v>3539.11</v>
+        <v>3502.68</v>
       </c>
       <c r="AJ26">
-        <v>176.96</v>
+        <v>175.13</v>
       </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM26" t="s">
         <v>206</v>
@@ -4293,37 +4293,37 @@
         <v>691.0700000000001</v>
       </c>
       <c r="AB27">
-        <v>431</v>
+        <v>427.3</v>
       </c>
       <c r="AC27">
-        <v>4310</v>
+        <v>4273</v>
       </c>
       <c r="AD27">
-        <v>12.93</v>
+        <v>12.82</v>
       </c>
       <c r="AE27">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AF27">
         <v>25</v>
       </c>
       <c r="AG27">
-        <v>2639.3</v>
+        <v>2676.18</v>
       </c>
       <c r="AH27">
-        <v>197.95</v>
+        <v>200.71</v>
       </c>
       <c r="AI27">
-        <v>-2837.25</v>
+        <v>-2876.9</v>
       </c>
       <c r="AJ27">
-        <v>-41.06</v>
+        <v>-41.63</v>
       </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM27" t="s">
         <v>206</v>
@@ -4415,37 +4415,37 @@
         <v>549.5700000000001</v>
       </c>
       <c r="AB28">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="AC28">
-        <v>32289</v>
+        <v>32477</v>
       </c>
       <c r="AD28">
-        <v>96.87</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="AE28">
-        <v>4.84</v>
+        <v>4.87</v>
       </c>
       <c r="AF28">
         <v>25</v>
       </c>
       <c r="AG28">
-        <v>-6332.65</v>
+        <v>-6520.06</v>
       </c>
       <c r="AH28">
-        <v>-474.95</v>
+        <v>-489</v>
       </c>
       <c r="AI28">
-        <v>6807.6</v>
+        <v>7009.06</v>
       </c>
       <c r="AJ28">
-        <v>26.36</v>
+        <v>27.14</v>
       </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM28" t="s">
         <v>206</v>
@@ -4540,37 +4540,37 @@
         <v>530.1799999999999</v>
       </c>
       <c r="AB29">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="AC29">
-        <v>8700</v>
+        <v>8760</v>
       </c>
       <c r="AD29">
-        <v>26.1</v>
+        <v>26.28</v>
       </c>
       <c r="AE29">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AF29">
         <v>25</v>
       </c>
       <c r="AG29">
-        <v>-694.84</v>
+        <v>-754.66</v>
       </c>
       <c r="AH29">
-        <v>-52.11</v>
+        <v>-56.6</v>
       </c>
       <c r="AI29">
-        <v>746.96</v>
+        <v>811.26</v>
       </c>
       <c r="AJ29">
-        <v>9.390000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM29" t="s">
         <v>206</v>
@@ -4662,37 +4662,37 @@
         <v>100</v>
       </c>
       <c r="AB30">
-        <v>281</v>
+        <v>284.8</v>
       </c>
       <c r="AC30">
-        <v>5620</v>
+        <v>5696</v>
       </c>
       <c r="AD30">
-        <v>16.86</v>
+        <v>17.09</v>
       </c>
       <c r="AE30">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AF30">
         <v>25</v>
       </c>
       <c r="AG30">
-        <v>-3577.3</v>
+        <v>-3653.06</v>
       </c>
       <c r="AH30">
-        <v>-268.3</v>
+        <v>-273.98</v>
       </c>
       <c r="AI30">
-        <v>3845.59</v>
+        <v>3927.04</v>
       </c>
       <c r="AJ30">
-        <v>192.28</v>
+        <v>196.35</v>
       </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM30" t="s">
         <v>206</v>
@@ -4787,37 +4787,37 @@
         <v>781.42</v>
       </c>
       <c r="AB31">
-        <v>859</v>
+        <v>830</v>
       </c>
       <c r="AC31">
-        <v>18039</v>
+        <v>17430</v>
       </c>
       <c r="AD31">
-        <v>54.12</v>
+        <v>52.29</v>
       </c>
       <c r="AE31">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AF31">
         <v>25</v>
       </c>
       <c r="AG31">
-        <v>-1547.33</v>
+        <v>-940.25</v>
       </c>
       <c r="AH31">
-        <v>-116.05</v>
+        <v>-70.52</v>
       </c>
       <c r="AI31">
-        <v>1663.38</v>
+        <v>1010.77</v>
       </c>
       <c r="AJ31">
-        <v>10.14</v>
+        <v>6.16</v>
       </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM31" t="s">
         <v>206</v>
@@ -4912,37 +4912,37 @@
         <v>100</v>
       </c>
       <c r="AB32">
-        <v>390</v>
+        <v>391.2</v>
       </c>
       <c r="AC32">
-        <v>4290</v>
+        <v>4303.2</v>
       </c>
       <c r="AD32">
-        <v>12.87</v>
+        <v>12.91</v>
       </c>
       <c r="AE32">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AF32">
         <v>25</v>
       </c>
       <c r="AG32">
-        <v>-3151.49</v>
+        <v>-3164.64</v>
       </c>
       <c r="AH32">
-        <v>-236.36</v>
+        <v>-237.35</v>
       </c>
       <c r="AI32">
-        <v>3387.85</v>
+        <v>3401.99</v>
       </c>
       <c r="AJ32">
-        <v>307.99</v>
+        <v>309.27</v>
       </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM32" t="s">
         <v>206</v>
@@ -5034,37 +5034,37 @@
         <v>100</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>417.6</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>8352</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>25.06</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF33">
         <v>25</v>
       </c>
       <c r="AG33">
-        <v>2025</v>
+        <v>-6300.69</v>
       </c>
       <c r="AH33">
-        <v>151.88</v>
+        <v>-472.55</v>
       </c>
       <c r="AI33">
-        <v>-2176.88</v>
+        <v>6773.24</v>
       </c>
       <c r="AJ33">
-        <v>-108.84</v>
+        <v>338.66</v>
       </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM33" t="s">
         <v>206</v>
@@ -5156,37 +5156,37 @@
         <v>577.4</v>
       </c>
       <c r="AB34">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AC34">
-        <v>290000</v>
+        <v>293500</v>
       </c>
       <c r="AD34">
-        <v>870</v>
+        <v>880.5</v>
       </c>
       <c r="AE34">
-        <v>43.5</v>
+        <v>44.02</v>
       </c>
       <c r="AF34">
         <v>25</v>
       </c>
       <c r="AG34">
-        <v>-363.1</v>
+        <v>-3852.08</v>
       </c>
       <c r="AH34">
-        <v>-27.23</v>
+        <v>-288.91</v>
       </c>
       <c r="AI34">
-        <v>390.33</v>
+        <v>4140.98</v>
       </c>
       <c r="AJ34">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34" s="2">
-        <v>45979.47397337963</v>
+        <v>45979.65547928241</v>
       </c>
       <c r="AM34" t="s">
         <v>206</v>
